--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1206936.985154208</v>
+        <v>-1209496.255721764</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>19.32087515651362</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3578936125428</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.0640301736142</v>
       </c>
       <c r="I2" t="n">
-        <v>43.2945117796236</v>
+        <v>43.29451177962346</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842623</v>
+        <v>110.2029851842622</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
         <v>250.9987361002815</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>135.0233064626824</v>
       </c>
       <c r="H3" t="n">
-        <v>89.82709352349997</v>
+        <v>89.82709352349994</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736385</v>
+        <v>9.512185486736314</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>59.60362612330855</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
         <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104682</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.83072347163693</v>
+        <v>89.83072347163686</v>
       </c>
       <c r="S4" t="n">
-        <v>190.1172987294701</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>156.5512714046824</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>31.37046952385413</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>287.8938041265592</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>85.7486284546373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>232.5926443566318</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>108.3651137305212</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>38.18739105194189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>62.08185706420309</v>
       </c>
       <c r="I10" t="n">
-        <v>54.26003672910126</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881268</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>70.04554881124344</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>141.5017810206669</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>40.62253010341785</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>13.94435783112366</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>90.85912858529829</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>181.1911789297515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>123.6562577500926</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>73.95046331124166</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>17.4831422307484</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678042</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1425.164914493791</v>
+        <v>1233.305320846139</v>
       </c>
       <c r="C2" t="n">
-        <v>1264.197345188192</v>
+        <v>1233.305320846139</v>
       </c>
       <c r="D2" t="n">
-        <v>905.931646581442</v>
+        <v>1233.305320846139</v>
       </c>
       <c r="E2" t="n">
-        <v>520.1433939831978</v>
+        <v>1233.305320846139</v>
       </c>
       <c r="F2" t="n">
-        <v>109.1574891935902</v>
+        <v>822.319416056532</v>
       </c>
       <c r="G2" t="n">
-        <v>109.1574891935902</v>
+        <v>407.2019641164329</v>
       </c>
       <c r="H2" t="n">
         <v>109.1574891935902</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316233</v>
+        <v>65.42565911316242</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725623</v>
+        <v>250.5613272725631</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183942</v>
+        <v>578.7702206183953</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887444</v>
+        <v>1022.844136887446</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064181</v>
+        <v>1548.631370064184</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746179</v>
+        <v>2087.540198746182</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767915</v>
+        <v>2583.081262767919</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303804</v>
+        <v>2971.513095303809</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301001</v>
+        <v>3215.036478301005</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658116</v>
+        <v>3271.282955658121</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007346</v>
+        <v>3159.966809007351</v>
       </c>
       <c r="T2" t="n">
-        <v>3159.966809007346</v>
+        <v>2953.792066077317</v>
       </c>
       <c r="U2" t="n">
-        <v>2906.432732138375</v>
+        <v>2700.257989208346</v>
       </c>
       <c r="V2" t="n">
-        <v>2575.369844794805</v>
+        <v>2369.195101864775</v>
       </c>
       <c r="W2" t="n">
-        <v>2575.369844794805</v>
+        <v>2016.426446594661</v>
       </c>
       <c r="X2" t="n">
-        <v>2201.904086533725</v>
+        <v>1642.960688333581</v>
       </c>
       <c r="Y2" t="n">
-        <v>1811.764754557913</v>
+        <v>1252.821356357769</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3149953501908</v>
+        <v>1647.371745645394</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8619660690638</v>
+        <v>1472.918716364267</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9275564078125</v>
+        <v>1323.984306703015</v>
       </c>
       <c r="E3" t="n">
-        <v>448.690101402357</v>
+        <v>1164.74685169756</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1555434292419</v>
+        <v>1018.212293724445</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841081</v>
+        <v>881.825115479311</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158292</v>
+        <v>791.0906775767858</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316233</v>
+        <v>781.4824094083652</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056105</v>
+        <v>872.9300981008136</v>
       </c>
       <c r="K3" t="n">
-        <v>419.0008575360354</v>
+        <v>1107.383588374685</v>
       </c>
       <c r="L3" t="n">
-        <v>780.5750497221809</v>
+        <v>1468.957780560831</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.871945822811</v>
+        <v>1910.254676661462</v>
       </c>
       <c r="N3" t="n">
-        <v>1689.257302559075</v>
+        <v>2377.640033397727</v>
       </c>
       <c r="O3" t="n">
-        <v>2094.603797632936</v>
+        <v>2782.986528471588</v>
       </c>
       <c r="P3" t="n">
-        <v>2400.597029664691</v>
+        <v>3088.979760503344</v>
       </c>
       <c r="Q3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658121</v>
       </c>
       <c r="R3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658121</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.341079122718</v>
+        <v>3141.397829417921</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.601027250337</v>
+        <v>2948.65777754554</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.53159630069</v>
+        <v>2720.588346595893</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.379488068947</v>
+        <v>2485.43623836415</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.142131340745</v>
+        <v>2231.198881635949</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.290631135213</v>
+        <v>2023.347381430416</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.530332370259</v>
+        <v>1815.587082665462</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1881.539226801309</v>
+        <v>2358.089749828705</v>
       </c>
       <c r="C4" t="n">
-        <v>1881.539226801309</v>
+        <v>2189.153566900799</v>
       </c>
       <c r="D4" t="n">
-        <v>1881.539226801309</v>
+        <v>2039.036927488463</v>
       </c>
       <c r="E4" t="n">
-        <v>1821.333543848473</v>
+        <v>1891.123833906069</v>
       </c>
       <c r="F4" t="n">
-        <v>1674.443596350562</v>
+        <v>1744.233886408159</v>
       </c>
       <c r="G4" t="n">
-        <v>1674.443596350562</v>
+        <v>1576.510863531326</v>
       </c>
       <c r="H4" t="n">
-        <v>1528.046935440984</v>
+        <v>1430.114202621748</v>
       </c>
       <c r="I4" t="n">
-        <v>1430.114202621745</v>
+        <v>1430.114202621748</v>
       </c>
       <c r="J4" t="n">
-        <v>1473.838067726844</v>
+        <v>1473.838067726847</v>
       </c>
       <c r="K4" t="n">
-        <v>1675.526646248735</v>
+        <v>1675.526646248738</v>
       </c>
       <c r="L4" t="n">
-        <v>1989.145022412495</v>
+        <v>1989.145022412498</v>
       </c>
       <c r="M4" t="n">
-        <v>2330.200750630626</v>
+        <v>2330.20075063063</v>
       </c>
       <c r="N4" t="n">
-        <v>2668.581552350618</v>
+        <v>2668.581552350622</v>
       </c>
       <c r="O4" t="n">
-        <v>2965.114695744367</v>
+        <v>2965.114695744371</v>
       </c>
       <c r="P4" t="n">
-        <v>3195.329345372344</v>
+        <v>3195.329345372348</v>
       </c>
       <c r="Q4" t="n">
-        <v>3271.282955658116</v>
+        <v>3271.282955658121</v>
       </c>
       <c r="R4" t="n">
-        <v>3180.544851141311</v>
+        <v>3180.544851141316</v>
       </c>
       <c r="S4" t="n">
-        <v>2988.507175656998</v>
+        <v>3180.544851141316</v>
       </c>
       <c r="T4" t="n">
-        <v>2766.654309878983</v>
+        <v>3022.412253762849</v>
       </c>
       <c r="U4" t="n">
-        <v>2766.654309878983</v>
+        <v>3022.412253762849</v>
       </c>
       <c r="V4" t="n">
-        <v>2511.969821673097</v>
+        <v>2767.727765556962</v>
       </c>
       <c r="W4" t="n">
-        <v>2511.969821673097</v>
+        <v>2767.727765556962</v>
       </c>
       <c r="X4" t="n">
-        <v>2283.980270775079</v>
+        <v>2539.738214658945</v>
       </c>
       <c r="Y4" t="n">
-        <v>2063.187691631549</v>
+        <v>2539.738214658945</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.236214140705</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.236214140705</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>936.9705155339545</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>551.1822629357102</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>140.1963581461027</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D7" t="n">
         <v>626.3436713194226</v>
@@ -4714,13 +4714,13 @@
         <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.779602640134</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.837537633435</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>933.7510266797581</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>712.9584475362279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>930.6247765778612</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>760.6631235951729</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>591.726940667266</v>
       </c>
       <c r="D10" t="n">
-        <v>583.826112045951</v>
+        <v>591.726940667266</v>
       </c>
       <c r="E10" t="n">
-        <v>435.9130184635579</v>
+        <v>443.8138470848729</v>
       </c>
       <c r="F10" t="n">
-        <v>289.0230709656475</v>
+        <v>296.9238995869625</v>
       </c>
       <c r="G10" t="n">
-        <v>121.3202343403665</v>
+        <v>129.2210629616815</v>
       </c>
       <c r="H10" t="n">
-        <v>121.3202343403665</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1163.104167568943</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>942.3115884254127</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,10 +5066,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5084,7 +5084,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.530292372933</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C13" t="n">
-        <v>853.5941094450257</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>703.4774700326898</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>555.5643764502968</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2304.031991640193</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2084.430526663135</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>1795.355300007332</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.37805728168</v>
+        <v>1540.670811801445</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1251.253641764485</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.971336346702</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.178757203172</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="14">
@@ -5279,19 +5279,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.613315601761</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>888.6771326738541</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>738.5604932615183</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>590.6473996791252</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>443.7574521812149</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>276.5613528960948</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>134.8495217382929</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.054359575531</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.261780432001</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232838</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>415.5933575433588</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>961.2628027535234</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>961.2628027535235</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1056.376371837086</v>
+        <v>659.9487421954782</v>
       </c>
       <c r="C22" t="n">
-        <v>887.4401889091788</v>
+        <v>491.0125592675713</v>
       </c>
       <c r="D22" t="n">
-        <v>737.323549496843</v>
+        <v>491.0125592675713</v>
       </c>
       <c r="E22" t="n">
-        <v>589.4104559144499</v>
+        <v>343.0994656851782</v>
       </c>
       <c r="F22" t="n">
-        <v>442.5205084165395</v>
+        <v>343.0994656851782</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602303</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667325</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1238.024836667325</v>
+        <v>841.5972070257179</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -6075,13 +6075,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1975.033022579362</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925705</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188002</v>
+        <v>653.7474797708867</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908933</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908933</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908933</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908934</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
         <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189237</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327548</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290587</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925701</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490399</v>
+        <v>835.3959446011264</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
@@ -6859,22 +6859,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6883,13 +6883,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
         <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580111</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,13 +7312,13 @@
         <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345473</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580115</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.95355500661969</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>27.95355500661645</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780281</v>
+        <v>1.622913276780139</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>363.4129665069669</v>
       </c>
       <c r="C2" t="n">
-        <v>205.9149981584647</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736143</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>86.83033652326063</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,10 +22753,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.11729872947</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>63.08306571555217</v>
       </c>
       <c r="U4" t="n">
         <v>286.2129282631967</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.828937001846498e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>75.37549921168483</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>39.52450498097767</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>40.64330621514768</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>211.7652975579135</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>49.4355842609256</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.51847645928569</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>41.86788054217625</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>144.6341900408531</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>149.7636788678794</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012167</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26323,7 +26323,7 @@
         <v>181607.9849302514</v>
       </c>
       <c r="F2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
         <v>181607.9849302514</v>
@@ -26338,13 +26338,13 @@
         <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
+        <v>184734.3982194636</v>
+      </c>
+      <c r="M2" t="n">
         <v>184734.3982194637</v>
-      </c>
-      <c r="M2" t="n">
-        <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194636</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1313514.533081207</v>
+        <v>1313514.533081208</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.0523207458</v>
+        <v>14479.05232074471</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.889412553</v>
+        <v>213977.8894125533</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022697</v>
+        <v>3495.241841022434</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11046.00124731557</v>
+        <v>11046.00124731551</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26433,31 +26433,31 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="I4" t="n">
-        <v>10557.08828678122</v>
-      </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="L4" t="n">
+        <v>18547.94754987469</v>
+      </c>
+      <c r="M4" t="n">
         <v>18547.94754987467</v>
-      </c>
-      <c r="M4" t="n">
-        <v>18547.94754987472</v>
       </c>
       <c r="N4" t="n">
         <v>18547.94754987467</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987469</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="P4" t="n">
-        <v>18547.94754987467</v>
+        <v>18547.94754987468</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106866.6399031116</v>
+        <v>106866.6399031117</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1279100.247426745</v>
+        <v>-1279460.330442464</v>
       </c>
       <c r="C6" t="n">
-        <v>-27422.71772080773</v>
+        <v>-27422.7177208066</v>
       </c>
       <c r="D6" t="n">
-        <v>-12943.66540006202</v>
+        <v>-12943.66540006197</v>
       </c>
       <c r="E6" t="n">
-        <v>-255484.0949877921</v>
+        <v>-255518.8329132278</v>
       </c>
       <c r="F6" t="n">
-        <v>69928.3668195631</v>
+        <v>69893.62889412729</v>
       </c>
       <c r="G6" t="n">
-        <v>69928.36681956305</v>
+        <v>69893.62889412741</v>
       </c>
       <c r="H6" t="n">
-        <v>69928.36681956305</v>
+        <v>69893.62889412741</v>
       </c>
       <c r="I6" t="n">
-        <v>69928.36681956302</v>
+        <v>69893.62889412732</v>
       </c>
       <c r="J6" t="n">
-        <v>-144049.52259299</v>
+        <v>-144084.260518426</v>
       </c>
       <c r="K6" t="n">
-        <v>66433.12497854033</v>
+        <v>66398.38705310483</v>
       </c>
       <c r="L6" t="n">
-        <v>43594.61682204186</v>
+        <v>43594.61682204177</v>
       </c>
       <c r="M6" t="n">
-        <v>-22032.69311983827</v>
+        <v>-22032.69311983816</v>
       </c>
       <c r="N6" t="n">
+        <v>63022.33481567359</v>
+      </c>
+      <c r="O6" t="n">
+        <v>63022.33481567359</v>
+      </c>
+      <c r="P6" t="n">
         <v>63022.33481567353</v>
-      </c>
-      <c r="O6" t="n">
-        <v>63022.3348156735</v>
-      </c>
-      <c r="P6" t="n">
-        <v>63022.33481567356</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203976</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491203</v>
+        <v>1078.694448491204</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145291</v>
+        <v>817.8207389145302</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491203</v>
+        <v>1078.694448491204</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209571</v>
+        <v>11.0822521020948</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145291</v>
+        <v>817.8207389145302</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776342</v>
+        <v>13.58071648776263</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145291</v>
+        <v>817.8207389145302</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776342</v>
+        <v>13.5807164877624</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145291</v>
+        <v>817.8207389145302</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776342</v>
+        <v>13.58071648776263</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>379.5512561295993</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>61.34716459085377</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>94.0833517273</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>53.93035397995916</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>298.5109320111903</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0505476041117</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>82.67315785011769</v>
       </c>
       <c r="I10" t="n">
-        <v>42.09238368073683</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.108952255664963e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.982574187626596e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,10 +29509,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436992</v>
+        <v>4.336460094436996</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215286</v>
+        <v>44.41077194215289</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907823</v>
+        <v>167.1813777907824</v>
       </c>
       <c r="J2" t="n">
-        <v>368.051629940222</v>
+        <v>368.0516299402223</v>
       </c>
       <c r="K2" t="n">
-        <v>551.61398573774</v>
+        <v>551.6139857377404</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528662</v>
+        <v>684.3259263528668</v>
       </c>
       <c r="M2" t="n">
-        <v>761.44444855731</v>
+        <v>761.4444485573107</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006292</v>
+        <v>773.7654158006299</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365713</v>
+        <v>730.644740736572</v>
       </c>
       <c r="P2" t="n">
-        <v>623.588382155158</v>
+        <v>623.5883821551585</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231331</v>
+        <v>468.2889050231335</v>
       </c>
       <c r="R2" t="n">
-        <v>272.400161407178</v>
+        <v>272.4001614071782</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198305</v>
+        <v>98.81708440198314</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339794</v>
+        <v>18.98285406339796</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549593</v>
+        <v>0.3469168075549596</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528247</v>
+        <v>2.320210700528249</v>
       </c>
       <c r="H3" t="n">
-        <v>22.40835071299649</v>
+        <v>22.40835071299652</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467869</v>
+        <v>79.88444736467876</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863113</v>
+        <v>219.2090293863115</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217038</v>
+        <v>374.6631463217042</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335565</v>
+        <v>503.780836533557</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277053</v>
+        <v>587.8884744277059</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290549</v>
+        <v>603.4481330290555</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594553</v>
+        <v>552.0371485594558</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736791</v>
+        <v>443.0584801736795</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498864</v>
+        <v>296.1728606498867</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871837</v>
+        <v>144.0565906871838</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612604</v>
+        <v>43.09689612604004</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164291</v>
+        <v>9.352077341164298</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242268</v>
+        <v>0.152645440824227</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.945186710393972</v>
+        <v>1.945186710393973</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695733</v>
+        <v>17.29447820695734</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621145</v>
+        <v>58.4970694362115</v>
       </c>
       <c r="J4" t="n">
-        <v>137.5247004248538</v>
+        <v>137.5247004248539</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166814</v>
+        <v>225.9953287166816</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889365</v>
+        <v>289.1962132889367</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120296</v>
+        <v>304.9168586120298</v>
       </c>
       <c r="N4" t="n">
-        <v>297.666617236925</v>
+        <v>297.6666172369252</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564135</v>
+        <v>274.9432997564137</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643763</v>
+        <v>235.2614908643765</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.8828617221716</v>
+        <v>162.8828617221717</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553256</v>
+        <v>87.46266790553263</v>
       </c>
       <c r="S4" t="n">
-        <v>33.8992993075022</v>
+        <v>33.89929930750223</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046967</v>
+        <v>8.311252308046974</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1061010932942168</v>
+        <v>0.1061010932942169</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>301.6445156724565</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32491,7 +32491,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135357</v>
+        <v>187.005725413536</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927594</v>
+        <v>331.5241346927599</v>
       </c>
       <c r="L2" t="n">
-        <v>448.559511382879</v>
+        <v>448.5595113828795</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300373</v>
+        <v>531.098215330038</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040382</v>
+        <v>544.3523522040389</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148845</v>
+        <v>500.5465293148852</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998885</v>
+        <v>392.3553863998889</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486836</v>
+        <v>245.983215148684</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304584</v>
+        <v>56.81462359304606</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964461</v>
+        <v>92.37140271964481</v>
       </c>
       <c r="K3" t="n">
-        <v>264.7752623539645</v>
+        <v>236.8217073473452</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536823</v>
+        <v>365.2264567536828</v>
       </c>
       <c r="M3" t="n">
-        <v>445.754440505687</v>
+        <v>445.7544405056876</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457217</v>
+        <v>472.1064209457222</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150109</v>
+        <v>409.4409041150113</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593488</v>
+        <v>309.0840727593492</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.1910865638649</v>
+        <v>184.1446415704817</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818102</v>
+        <v>44.16552030818113</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907985</v>
+        <v>203.7258368907987</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492526</v>
+        <v>316.7862385492529</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738701</v>
+        <v>344.5007355738704</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161536</v>
+        <v>341.7987896161538</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704531</v>
+        <v>299.5284276704534</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292698</v>
+        <v>232.54005012927</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.7208184704772</v>
+        <v>76.72081847047734</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>159.048271228012</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
